--- a/doc/数据统计.xlsx
+++ b/doc/数据统计.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
   <si>
     <t>IPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,6 +298,10 @@
   </si>
   <si>
     <t>Banshee/CacheOnly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banshee/TDC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2262,16 +2266,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
     <col min="3" max="3" width="16.21875" customWidth="1"/>
     <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" style="4" customWidth="1"/>
@@ -2670,363 +2674,412 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12">
+        <f>B10/B6</f>
+        <v>0.98715295982551721</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:N12" si="0">C10/C6</f>
+        <v>0.98513948286355613</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.97007515882762785</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.91356958827350143</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.86137670501495944</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.99784676095646496</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0.98930684249189438</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>1.0053403268919296</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>0.94533439361443861</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>0.45844189339208402</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0.38205223848360664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>65</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <f>B6/B10</f>
         <v>1.0130142345688287</v>
       </c>
-      <c r="C12">
-        <f t="shared" ref="C12:M12" si="0">C6/C10</f>
+      <c r="C13">
+        <f t="shared" ref="C13:M13" si="1">C6/C10</f>
         <v>1.0150846833315907</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
+      <c r="D13">
+        <f t="shared" si="1"/>
         <v>1.0308479615213912</v>
       </c>
-      <c r="E12" s="6">
-        <f t="shared" si="0"/>
+      <c r="E13" s="6">
+        <f t="shared" si="1"/>
         <v>1.0946073652581167</v>
       </c>
-      <c r="F12" s="4">
-        <f t="shared" si="0"/>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
         <v>1.1609322543527958</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
+      <c r="H13">
+        <f t="shared" si="1"/>
         <v>1.0021578854868167</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
+      <c r="I13">
+        <f t="shared" si="1"/>
         <v>1.010808737035692</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
+      <c r="J13">
+        <f t="shared" si="1"/>
         <v>0.99468804070713079</v>
       </c>
-      <c r="K12" s="4">
-        <f t="shared" si="0"/>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
         <v>1.0578267402041199</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4">
-        <f t="shared" si="0"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4">
+        <f t="shared" si="1"/>
         <v>2.1813015224259762</v>
       </c>
-      <c r="N12" s="4">
-        <f t="shared" ref="N12" si="1">N6/N10</f>
+      <c r="N13" s="4">
+        <f t="shared" ref="N13" si="2">N6/N10</f>
         <v>2.6174431118871948</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>66</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <f>B6/B11</f>
         <v>1.0010672548960295</v>
       </c>
-      <c r="C13">
-        <f t="shared" ref="C13:M13" si="2">C6/C11</f>
+      <c r="C14">
+        <f t="shared" ref="C14:M14" si="3">C6/C11</f>
         <v>0.99929014870698007</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
+      <c r="D14">
+        <f t="shared" si="3"/>
         <v>1.0000741230155239</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="2"/>
+      <c r="E14">
+        <f t="shared" si="3"/>
         <v>1.0000492025039678</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
+      <c r="F14">
+        <f t="shared" si="3"/>
         <v>1.0002969950822127</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
+      <c r="H14">
+        <f t="shared" si="3"/>
         <v>0.99906675192947192</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="2"/>
+      <c r="I14">
+        <f t="shared" si="3"/>
         <v>0.99944913367827237</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="2"/>
+      <c r="J14">
+        <f t="shared" si="3"/>
         <v>0.98167891901712334</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="2"/>
+      <c r="K14">
+        <f t="shared" si="3"/>
         <v>0.95589094462197366</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="2"/>
+      <c r="M14">
+        <f t="shared" si="3"/>
         <v>0.78203066743623018</v>
       </c>
-      <c r="N13">
-        <f t="shared" ref="N13" si="3">N6/N11</f>
+      <c r="N14">
+        <f t="shared" ref="N14" si="4">N6/N11</f>
         <v>0.80614795060662303</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>69</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <f>B10/B11</f>
         <v>0.98820650365502105</v>
       </c>
-      <c r="C14">
-        <f t="shared" ref="C14:N14" si="4">C10/C11</f>
+      <c r="C15">
+        <f t="shared" ref="C15:N15" si="5">C10/C11</f>
         <v>0.98444018032784042</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="4"/>
+      <c r="D15">
+        <f t="shared" si="5"/>
         <v>0.97014706372368498</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="4"/>
+      <c r="E15">
+        <f t="shared" si="5"/>
         <v>0.91361453818479332</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="4"/>
+      <c r="F15">
+        <f t="shared" si="5"/>
         <v>0.86163252966028148</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="4"/>
+      <c r="H15">
+        <f t="shared" si="5"/>
         <v>0.99691552239211967</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="4"/>
+      <c r="I15">
+        <f t="shared" si="5"/>
         <v>0.9887618666705108</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="4"/>
+      <c r="J15">
+        <f t="shared" si="5"/>
         <v>0.98692140534759099</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="4"/>
+      <c r="K15">
+        <f t="shared" si="5"/>
         <v>0.90363658649574641</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="4"/>
+      <c r="M15">
+        <f t="shared" si="5"/>
         <v>0.35851561987014052</v>
       </c>
-      <c r="N14">
-        <f t="shared" si="4"/>
+      <c r="N15">
+        <f t="shared" si="5"/>
         <v>0.30799062907823227</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="K15"/>
-    </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="K16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>67</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>59</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>60</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17">
-        <v>1984911461</v>
-      </c>
-      <c r="C17">
-        <v>1793230332</v>
-      </c>
-      <c r="D17">
-        <v>561793875</v>
-      </c>
-      <c r="E17">
-        <v>2081193314</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1636680451</v>
-      </c>
-      <c r="G17">
-        <v>1626544891</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18">
-        <v>3455574</v>
+        <v>1984911461</v>
       </c>
       <c r="C18">
-        <v>185601975</v>
+        <v>1793230332</v>
       </c>
       <c r="D18">
-        <v>1537176500</v>
+        <v>561793875</v>
       </c>
       <c r="E18">
-        <v>17787156</v>
+        <v>2081193314</v>
       </c>
       <c r="F18" s="6">
-        <v>90240</v>
+        <v>1636680451</v>
       </c>
       <c r="G18">
-        <v>9395661</v>
+        <v>1626544891</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19">
-        <v>171260445</v>
+        <v>3455574</v>
       </c>
       <c r="C19">
-        <v>150460278</v>
+        <v>185601975</v>
       </c>
       <c r="D19">
-        <v>505857046</v>
+        <v>1537176500</v>
       </c>
       <c r="E19">
-        <v>1570355832</v>
+        <v>17787156</v>
       </c>
       <c r="F19" s="6">
-        <v>1252749702</v>
+        <v>90240</v>
       </c>
       <c r="G19">
-        <v>1244755843</v>
+        <v>9395661</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20">
-        <v>2931</v>
+        <v>171260445</v>
       </c>
       <c r="C20">
-        <v>19826971</v>
+        <v>150460278</v>
       </c>
       <c r="D20">
-        <v>1064500244</v>
+        <v>505857046</v>
       </c>
       <c r="E20">
-        <v>2731</v>
+        <v>1570355832</v>
       </c>
       <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>7282796</v>
+        <v>1252749702</v>
+      </c>
+      <c r="G20">
+        <v>1244755843</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21">
-        <f>B19+B17</f>
-        <v>2156171906</v>
+        <v>2931</v>
       </c>
       <c r="C21">
-        <f>C19+C17</f>
-        <v>1943690610</v>
+        <v>19826971</v>
       </c>
       <c r="D21">
-        <f>D17+D19</f>
-        <v>1067650921</v>
+        <v>1064500244</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21:G22" si="5">E19+E17</f>
-        <v>3651549146</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="5"/>
-        <v>2889430153</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="5"/>
-        <v>2871300734</v>
+        <v>2731</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>7282796</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22">
-        <f>B18+B20</f>
-        <v>3458505</v>
+        <f>B20+B18</f>
+        <v>2156171906</v>
       </c>
       <c r="C22">
-        <f>C18+C20</f>
-        <v>205428946</v>
+        <f>C20+C18</f>
+        <v>1943690610</v>
       </c>
       <c r="D22">
-        <f>D20+D18</f>
-        <v>2601676744</v>
+        <f>D18+D20</f>
+        <v>1067650921</v>
       </c>
       <c r="E22">
-        <f t="shared" si="5"/>
-        <v>17789887</v>
+        <f t="shared" ref="E22:G23" si="6">E20+E18</f>
+        <v>3651549146</v>
       </c>
       <c r="F22">
-        <f t="shared" si="5"/>
-        <v>90240</v>
+        <f t="shared" si="6"/>
+        <v>2889430153</v>
       </c>
       <c r="G22">
-        <f t="shared" si="5"/>
-        <v>16678457</v>
+        <f t="shared" si="6"/>
+        <v>2871300734</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23">
+        <f>B19+B21</f>
+        <v>3458505</v>
+      </c>
+      <c r="C23">
+        <f>C19+C21</f>
+        <v>205428946</v>
+      </c>
+      <c r="D23">
+        <f>D21+D19</f>
+        <v>2601676744</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="6"/>
+        <v>17789887</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="6"/>
+        <v>90240</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>16678457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>58</v>
       </c>
-      <c r="B23">
-        <f>B22/(B21+B22)</f>
+      <c r="B24">
+        <f>B23/(B22+B23)</f>
         <v>1.601433737172911E-3</v>
       </c>
-      <c r="C23">
-        <f>C22/(C21+C22)</f>
+      <c r="C24">
+        <f>C23/(C22+C23)</f>
         <v>9.5587490898993988E-2</v>
       </c>
-      <c r="D23">
-        <f>D22/(D21+D22)</f>
+      <c r="D24">
+        <f>D23/(D22+D23)</f>
         <v>0.70903363818286858</v>
       </c>
-      <c r="E23">
-        <f>E22/(E22+E21)</f>
+      <c r="E24">
+        <f>E23/(E23+E22)</f>
         <v>4.8482538244647398E-3</v>
       </c>
-      <c r="F23">
-        <f>F22/(F22+F21)</f>
+      <c r="F24">
+        <f>F23/(F23+F22)</f>
         <v>3.1230096253554976E-5</v>
       </c>
-      <c r="G23">
-        <f>G22/(G22+G21)</f>
+      <c r="G24">
+        <f>G23/(G23+G22)</f>
         <v>5.775130600655356E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E24"/>
-      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E25"/>
       <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26"/>
+      <c r="G26" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/数据统计.xlsx
+++ b/doc/数据统计.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="DC Size test" sheetId="1" r:id="rId1"/>
     <sheet name="LRU_DC测试" sheetId="4" r:id="rId2"/>
-    <sheet name="各个策略性能对比mcf" sheetId="2" r:id="rId3"/>
-    <sheet name="Olden+mcf对比" sheetId="3" r:id="rId4"/>
-    <sheet name="Olden" sheetId="6" r:id="rId5"/>
+    <sheet name="Olden+mcf对比" sheetId="3" r:id="rId3"/>
+    <sheet name="各个策略性能对比mcf" sheetId="2" r:id="rId4"/>
+    <sheet name="整体对比" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,29 +24,352 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
+  <si>
+    <t>Banshee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alloy-0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alloy-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CacheOnly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoCache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unsion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>IPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>程序名*个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health*16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcf*16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcf*8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banshee-8mcf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banshee-8health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banshee-16health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health*8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDC-footprint4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDC-footprint31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoCache-1MC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoCache-2MC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并运行一起跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcf*8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcf*16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32mcf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5带宽比例开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRU_DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1MC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC：FBR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC：LRU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcf*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcf*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Banshee</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Alloy-0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alloy-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CacheOnly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoCache</t>
+    <t>health  5 1000 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health*8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banshee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health*16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health*32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcf*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcf*8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcf*16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcf*32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health*64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lbm*16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loadHit:</t>
+  </si>
+  <si>
+    <t>loadMiss:</t>
+  </si>
+  <si>
+    <t>storeHit:</t>
+  </si>
+  <si>
+    <t>storeMiss:</t>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>missrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banshee  mcf*16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banshee lbm*16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDC4 lbm*16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDC4 health*64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banshee health*64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lbm*32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDC4 mcf*16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该测试health参数很小，不值得参考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banshee/CacheOnly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banshee/TDC4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDC4/Banshee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDC4/CacheOnly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scheme/IPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 mcf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">32 mcf </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16mcf-ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32mcf-ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDC4 mcf*32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banshee  mcf*32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDC mcf*8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banshee  mcf*8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDC mcf*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banshee  mcf*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banshee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lbm*64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcf*64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcf*16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalTouchLines</t>
+  </si>
+  <si>
+    <t>策略</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -53,251 +377,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>页面利用率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>placement（4K）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Unsion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>策略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序名*个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>health*16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>256M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>512M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcf*16</t>
+    <t>mcf*32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cacheline size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>footprint size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mcf*8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Banshee-8mcf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Banshee-8health</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Banshee-16health</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>health*8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TDC-footprint4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TDC-footprint31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoCache-1MC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoCache-2MC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合并运行一起跑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcf*8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcf*16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32mcf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5带宽比例开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LRU_DC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LRU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1MC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC：FBR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC：LRU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcf*4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>128M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcf*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Banshee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>health  5 1000 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>health*8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>health*4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Banshee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>health*16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>health*32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcf*4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcf*8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcf*16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcf*32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>health*64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lbm*16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loadHit:</t>
-  </si>
-  <si>
-    <t>loadMiss:</t>
-  </si>
-  <si>
-    <t>storeHit:</t>
-  </si>
-  <si>
-    <t>storeMiss:</t>
-  </si>
-  <si>
-    <t>hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>miss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>missrate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Banshee  mcf*16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Banshee lbm*16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TDC4 lbm*16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TDC4 health*64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>banshee health*64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lbm*32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TDC/Banshee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TDC/CacheOnly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TDC4 mcf*16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该测试health参数很小，不值得参考</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Banshee/CacheOnly</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +506,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -420,7 +524,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -432,6 +536,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>16mcf</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -483,6 +613,53 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9091-4C33-ABBC-943284F6E150}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9091-4C33-ABBC-943284F6E150}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>各个策略性能对比mcf!$A$2:$A$8</c:f>
@@ -714,7 +891,1305 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>32mcf</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-1767-4EC3-8D45-03C03F907EF8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-1767-4EC3-8D45-03C03F907EF8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>各个策略性能对比mcf!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>NoCache</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Unsion</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TDC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Alloy-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Alloy-0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Banshee</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CacheOnly</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>各个策略性能对比mcf!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6044348158973496</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1008124576578036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3020174170950667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9406129871291569</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8219734516009138</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3361866082694425</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1767-4EC3-8D45-03C03F907EF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-41"/>
+        <c:axId val="456260816"/>
+        <c:axId val="456261232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="456260816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456261232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="456261232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456260816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TDC-4 VS Banshee</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41769823633189279"/>
+          <c:y val="3.1103720476437235E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.1330996106182007E-2"/>
+          <c:y val="0.1220885481153654"/>
+          <c:w val="0.95186547651689235"/>
+          <c:h val="0.74102399639924321"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>整体对比!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TDC4/Banshee</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-E951-4ACF-98BD-F066C00890C3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.4788033793458746E-17"/>
+                  <c:y val="-7.4300710381096343E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-E951-4ACF-98BD-F066C00890C3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2925790289942778E-3"/>
+                  <c:y val="2.4766903460365446E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-E951-4ACF-98BD-F066C00890C3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.7554741739656674E-3"/>
+                  <c:y val="-9.9067613841461784E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-E951-4ACF-98BD-F066C00890C3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2925790289942778E-3"/>
+                  <c:y val="4.9533806920730892E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-E951-4ACF-98BD-F066C00890C3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.0681264463908351E-2"/>
+                  <c:y val="0.43094412021035866"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-E951-4ACF-98BD-F066C00890C3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5851580579885555E-3"/>
+                  <c:y val="0.48543130782316274"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-2408-4960-8130-B5F2B6996077}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>整体对比!$B$2:$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>health*4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>health*8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>health*16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>health*32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>health*64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mcf*4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mcf*8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>mcf*16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>mcf*32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>mcf*64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>lbm*16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>lbm*32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>lbm*64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>整体对比!$B$13:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.0130142345688287</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0150846833315907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0308479615213912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0946073652581167</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1609322543527958</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0021578854868167</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.010808737035692</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99468804070713079</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0578267402041199</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0278105065289886</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1813015224259762</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6174431118871948</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E951-4ACF-98BD-F066C00890C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>整体对比!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Banshee</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>整体对比!$B$2:$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>health*4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>health*8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>health*16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>health*32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>health*64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mcf*4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mcf*8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>mcf*16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>mcf*32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>mcf*64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>lbm*16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>lbm*32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>lbm*64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>整体对比!$B$16:$O$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E951-4ACF-98BD-F066C00890C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="699261680"/>
+        <c:axId val="699259384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="699261680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="699259384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="699259384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="699261680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1257,20 +2732,1019 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1289,11 +3763,171 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>484094</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>717176</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>143436</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.82299</cdr:x>
+      <cdr:y>0.12762</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.86131</cdr:x>
+      <cdr:y>0.17133</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="文本框 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8086165" y="654424"/>
+          <a:ext cx="376517" cy="224117"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2.1813 </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.90693</cdr:x>
+      <cdr:y>0.13112</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.94526</cdr:x>
+      <cdr:y>0.17483</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="文本框 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8910918" y="672353"/>
+          <a:ext cx="376517" cy="224117"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2.617443 </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1571,24 +4205,24 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>0.21430103502299999</v>
@@ -1605,7 +4239,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>0.29929480995399999</v>
@@ -1622,7 +4256,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0.36408179903600002</v>
@@ -1642,7 +4276,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>0.42102783778500003</v>
@@ -1718,22 +4352,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1746,7 +4380,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>7.4586765023400003E-2</v>
@@ -1767,122 +4401,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>8.2978759685799999E-2</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C8" si="0">B2/$B$2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>0.174580710488</v>
-      </c>
-      <c r="C3">
-        <f t="shared" si="0"/>
-        <v>2.1039204628877535</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0.23732099394799999</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>2.8600209842448669</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.18997027705700001</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>2.2893843891656682</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>0.20749949454</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>2.5006338408250395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>0.238598723594</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>2.87541925786137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>0.24175011742700001</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>2.9133975771919167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>0.228609445415</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
@@ -1897,26 +4415,26 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>0.23361012544199999</v>
@@ -1928,7 +4446,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>0.383275035017</v>
@@ -1940,7 +4458,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>0.424411755562</v>
@@ -1948,7 +4466,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2">
         <v>0.53564519699099999</v>
@@ -1956,7 +4474,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>0.529299265066</v>
@@ -1964,7 +4482,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>0.41542661534600001</v>
@@ -1972,7 +4490,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0.44570293502399999</v>
@@ -1980,7 +4498,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>0.51000265554699997</v>
@@ -1988,10 +4506,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>0.28475222125000005</v>
@@ -2000,7 +4518,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>0.52335480874999996</v>
@@ -2008,7 +4526,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>0.53575290021599997</v>
@@ -2016,10 +4534,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>0.384937408446</v>
@@ -2027,7 +4545,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3">
         <v>0.503863929361</v>
@@ -2035,7 +4553,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>0.49719382362699999</v>
@@ -2043,7 +4561,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2">
         <v>0.54838884618399997</v>
@@ -2051,7 +4569,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>0.54455770050899999</v>
@@ -2059,7 +4577,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>0.46008222863100001</v>
@@ -2067,7 +4585,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>0.477830001344</v>
@@ -2075,7 +4593,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <v>0.534821413621</v>
@@ -2083,7 +4601,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3">
         <v>0.548459771185</v>
@@ -2094,10 +4612,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>8.3004897197099997E-2</v>
@@ -2109,7 +4627,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26">
         <v>0.14527171333700001</v>
@@ -2121,7 +4639,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <v>0.174580710488</v>
@@ -2129,7 +4647,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28">
         <v>0.23732099394799999</v>
@@ -2137,7 +4655,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29">
         <v>0.228609445415</v>
@@ -2145,7 +4663,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>0.18997027705700001</v>
@@ -2153,7 +4671,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="2">
         <v>0.23858836563399999</v>
@@ -2161,7 +4679,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>0.20749949454</v>
@@ -2169,7 +4687,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>0.24175011742700001</v>
@@ -2177,10 +4695,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35">
         <v>0.20455344227300001</v>
@@ -2188,7 +4706,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36">
         <v>0.27175144609500002</v>
@@ -2196,7 +4714,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37">
         <v>0.27527389553800002</v>
@@ -2204,7 +4722,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38">
         <v>0.307012036494</v>
@@ -2212,7 +4730,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39" s="2">
         <v>0.307655205579</v>
@@ -2220,7 +4738,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <v>0.26555589725399997</v>
@@ -2228,7 +4746,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>0.27560382952599999</v>
@@ -2236,7 +4754,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42">
         <v>0.30543179196199999</v>
@@ -2244,7 +4762,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43">
         <v>0.30714643970599997</v>
@@ -2260,777 +4778,1466 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="5.77734375" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="5.77734375" customWidth="1"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>8.2978759685799999E-2</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C8" si="0">B2/$B$2</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>3.5087173105200001E-2</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E8" si="1">D2/$D$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>0.10875155678200001</v>
+        <v>0.174580710488</v>
       </c>
       <c r="C3">
-        <v>6.9972982145299997E-2</v>
-      </c>
-      <c r="D3">
-        <v>3.7156831936099997E-2</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1.7971619863299999E-2</v>
-      </c>
-      <c r="F3" s="6">
-        <v>8.8905912176300006E-3</v>
-      </c>
-      <c r="H3">
-        <v>0.33245142236699998</v>
-      </c>
-      <c r="I3">
-        <v>0.20459074163400001</v>
-      </c>
-      <c r="J3">
-        <v>8.3004897197099997E-2</v>
-      </c>
-      <c r="K3" s="4">
-        <v>3.5087173105200001E-2</v>
-      </c>
-      <c r="M3">
-        <v>8.73348916946E-2</v>
-      </c>
-      <c r="N3">
-        <v>4.4161474431599998E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2.1039204628877535</v>
+      </c>
+      <c r="D3" s="6">
+        <v>9.1382255226599998E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>2.6044348158973496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.124553718599</v>
+        <v>0.23732099394799999</v>
       </c>
       <c r="C4">
-        <v>0.100966929028</v>
-      </c>
-      <c r="D4">
-        <v>6.7872314098100003E-2</v>
-      </c>
-      <c r="E4" s="6">
-        <v>3.4990829788E-2</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1.72877656595E-2</v>
-      </c>
-      <c r="H4">
-        <v>0.35605094970200002</v>
-      </c>
-      <c r="I4">
-        <v>0.27248336313900001</v>
-      </c>
-      <c r="J4">
-        <v>0.14527171333700001</v>
-      </c>
-      <c r="K4" s="4">
-        <v>6.5615732183100003E-2</v>
-      </c>
-      <c r="M4">
-        <v>0.16892182402700001</v>
-      </c>
-      <c r="N4">
-        <v>8.6511335901099995E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2.8600209842448669</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.178973089679</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>5.1008124576578036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>0.12170787574</v>
+        <v>0.18997027705700001</v>
       </c>
       <c r="C5">
-        <v>0.108614752698</v>
-      </c>
-      <c r="D5">
-        <v>8.7931939337100001E-2</v>
-      </c>
-      <c r="E5" s="6">
-        <v>5.5135197145099998E-2</v>
-      </c>
-      <c r="F5" s="6">
-        <v>2.7352865939699999E-2</v>
-      </c>
-      <c r="H5">
-        <v>0.34940296992600001</v>
-      </c>
-      <c r="I5">
-        <v>0.276750151055</v>
-      </c>
-      <c r="J5">
-        <v>0.174580710488</v>
-      </c>
-      <c r="K5" s="4">
-        <v>9.1382255226599998E-2</v>
-      </c>
-      <c r="M5">
-        <v>0.25475542024499997</v>
-      </c>
-      <c r="N5">
-        <v>0.13562165721200001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.13056513206299999</v>
+        <f t="shared" si="0"/>
+        <v>2.2893843891656682</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.11585845671</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>3.3020174170950667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0.20749949454</v>
       </c>
       <c r="C6">
-        <v>0.121726556848</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.115512308055</v>
-      </c>
-      <c r="E6" s="7">
-        <v>9.8450518472899998E-2</v>
-      </c>
-      <c r="F6" s="7">
-        <v>6.3231082380100001E-2</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2">
-        <v>0.37155274580499997</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.30844124258900002</v>
-      </c>
-      <c r="J6">
-        <v>0.23732099394799999</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0.178973089679</v>
-      </c>
-      <c r="M6">
-        <v>0.44315902808699997</v>
-      </c>
-      <c r="N6">
-        <v>0.25181224062800001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7">
-        <v>0.13049302057000001</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.121785137488</v>
-      </c>
-      <c r="D7">
-        <v>0.11542875544599999</v>
-      </c>
-      <c r="E7" s="6">
-        <v>9.8349957787099998E-2</v>
-      </c>
-      <c r="F7" s="6">
-        <v>6.3162515980799999E-2</v>
-      </c>
-      <c r="H7">
-        <v>0.37101705835499998</v>
-      </c>
-      <c r="I7">
-        <v>0.30483988960699998</v>
-      </c>
-      <c r="J7">
-        <v>0.228609445415</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0.16198044166799999</v>
-      </c>
-      <c r="M7">
-        <v>0.378588410115</v>
-      </c>
-      <c r="N7">
-        <v>0.21487624836899999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2.5006338408250395</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.13826497001999999</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>3.9406129871291569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.238598723594</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2.87541925786137</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.169189417205</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>4.8219734516009138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0.12477448969</v>
+        <v>0.24175011742700001</v>
       </c>
       <c r="C8">
-        <v>0.11523145335399999</v>
-      </c>
-      <c r="D8">
-        <v>0.107051658223</v>
-      </c>
-      <c r="E8" s="6">
-        <v>8.5586398763499993E-2</v>
-      </c>
-      <c r="F8" s="6">
-        <v>4.68647167558E-2</v>
-      </c>
-      <c r="H8">
-        <v>0.32961737020300003</v>
-      </c>
-      <c r="I8">
-        <v>0.26576924171900002</v>
-      </c>
-      <c r="J8">
-        <v>0.18997027705700001</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0.11585845671</v>
-      </c>
-      <c r="M8">
-        <v>0.32096738495600002</v>
-      </c>
-      <c r="N8">
-        <v>0.16261801655300001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>0.12524968221400001</v>
-      </c>
-      <c r="C9">
-        <v>0.11589748293</v>
-      </c>
-      <c r="D9">
-        <v>0.108564097441</v>
-      </c>
-      <c r="E9" s="6">
-        <v>8.9073154816400005E-2</v>
-      </c>
-      <c r="F9" s="6">
-        <v>5.1960084992999998E-2</v>
-      </c>
-      <c r="H9">
-        <v>0.33945287990900003</v>
-      </c>
-      <c r="I9">
-        <v>0.27508411323999998</v>
-      </c>
-      <c r="J9">
-        <v>0.20749949454</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0.13826497001999999</v>
-      </c>
-      <c r="M9">
-        <v>0.23160281583600001</v>
-      </c>
-      <c r="N9">
-        <v>0.103681843633</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>43</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>2.9133975771919167</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.187231703246</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>5.3361866082694425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>0.12888775656599999</v>
-      </c>
-      <c r="C10">
-        <v>0.119917637264</v>
-      </c>
-      <c r="D10">
-        <v>0.112055620583</v>
-      </c>
-      <c r="E10" s="6">
-        <v>8.9941399626599999E-2</v>
-      </c>
-      <c r="F10" s="6">
-        <v>5.4465781395099999E-2</v>
-      </c>
-      <c r="H10">
-        <v>0.37075270392600002</v>
-      </c>
-      <c r="I10">
-        <v>0.30514303180000002</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.23858836563399999</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0.169189417205</v>
-      </c>
-      <c r="M10">
-        <v>0.20316266391000001</v>
-      </c>
-      <c r="N10">
-        <v>9.6205430209499995E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>0.130425934346</v>
-      </c>
-      <c r="C11">
-        <v>0.121813025982</v>
-      </c>
-      <c r="D11">
-        <v>0.115503746569</v>
-      </c>
-      <c r="E11" s="6">
-        <v>9.84456746992E-2</v>
-      </c>
-      <c r="F11" s="6">
-        <v>6.3212308635300002E-2</v>
-      </c>
-      <c r="H11">
-        <v>0.37189982059499999</v>
-      </c>
-      <c r="I11">
-        <v>0.30861124613099999</v>
-      </c>
-      <c r="J11">
-        <v>0.24175011742700001</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0.187231703246</v>
-      </c>
-      <c r="M11">
-        <v>0.56667730121100002</v>
-      </c>
-      <c r="N11">
-        <v>0.31236479660900002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12">
-        <f>B6/B10</f>
-        <v>1.0130142345688287</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ref="C12:M12" si="0">C6/C10</f>
-        <v>1.0150846833315907</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>1.0308479615213912</v>
-      </c>
-      <c r="E12" s="6">
-        <f t="shared" si="0"/>
-        <v>1.0946073652581167</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1609322543527958</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>1.0021578854868167</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>1.010808737035692</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>0.99468804070713079</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0578267402041199</v>
-      </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4">
-        <f t="shared" si="0"/>
-        <v>2.1813015224259762</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" ref="N12" si="1">N6/N10</f>
-        <v>2.6174431118871948</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13">
-        <f>B6/B11</f>
-        <v>1.0010672548960295</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ref="C13:M13" si="2">C6/C11</f>
-        <v>0.99929014870698007</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>1.0000741230155239</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="2"/>
-        <v>1.0000492025039678</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>1.0002969950822127</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
-        <v>0.99906675192947192</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="2"/>
-        <v>0.99944913367827237</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="2"/>
-        <v>0.98167891901712334</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="2"/>
-        <v>0.95589094462197366</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="2"/>
-        <v>0.78203066743623018</v>
-      </c>
-      <c r="N13">
-        <f t="shared" ref="N13" si="3">N6/N11</f>
-        <v>0.80614795060662303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14">
-        <f>B10/B11</f>
-        <v>0.98820650365502105</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ref="C14:N14" si="4">C10/C11</f>
-        <v>0.98444018032784042</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="4"/>
-        <v>0.97014706372368498</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="4"/>
-        <v>0.91361453818479332</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="4"/>
-        <v>0.86163252966028148</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="4"/>
-        <v>0.99691552239211967</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="4"/>
-        <v>0.9887618666705108</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="4"/>
-        <v>0.98692140534759099</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="4"/>
-        <v>0.90363658649574641</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="4"/>
-        <v>0.35851561987014052</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="4"/>
-        <v>0.30799062907823227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="K15"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17">
-        <v>1984911461</v>
-      </c>
-      <c r="C17">
-        <v>1793230332</v>
-      </c>
-      <c r="D17">
-        <v>561793875</v>
-      </c>
-      <c r="E17">
-        <v>2081193314</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1636680451</v>
-      </c>
-      <c r="G17">
-        <v>1626544891</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18">
-        <v>3455574</v>
-      </c>
-      <c r="C18">
-        <v>185601975</v>
-      </c>
-      <c r="D18">
-        <v>1537176500</v>
-      </c>
-      <c r="E18">
-        <v>17787156</v>
-      </c>
-      <c r="F18" s="6">
-        <v>90240</v>
-      </c>
-      <c r="G18">
-        <v>9395661</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19">
-        <v>171260445</v>
-      </c>
-      <c r="C19">
-        <v>150460278</v>
-      </c>
-      <c r="D19">
-        <v>505857046</v>
-      </c>
-      <c r="E19">
-        <v>1570355832</v>
-      </c>
-      <c r="F19" s="6">
-        <v>1252749702</v>
-      </c>
-      <c r="G19">
-        <v>1244755843</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20">
-        <v>2931</v>
-      </c>
-      <c r="C20">
-        <v>19826971</v>
-      </c>
-      <c r="D20">
-        <v>1064500244</v>
-      </c>
-      <c r="E20">
-        <v>2731</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>7282796</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21">
-        <f>B19+B17</f>
-        <v>2156171906</v>
-      </c>
-      <c r="C21">
-        <f>C19+C17</f>
-        <v>1943690610</v>
-      </c>
-      <c r="D21">
-        <f>D17+D19</f>
-        <v>1067650921</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ref="E21:G22" si="5">E19+E17</f>
-        <v>3651549146</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="5"/>
-        <v>2889430153</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="5"/>
-        <v>2871300734</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22">
-        <f>B18+B20</f>
-        <v>3458505</v>
-      </c>
-      <c r="C22">
-        <f>C18+C20</f>
-        <v>205428946</v>
-      </c>
-      <c r="D22">
-        <f>D20+D18</f>
-        <v>2601676744</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="5"/>
-        <v>17789887</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="5"/>
-        <v>90240</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="5"/>
-        <v>16678457</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23">
-        <f>B22/(B21+B22)</f>
-        <v>1.601433737172911E-3</v>
-      </c>
-      <c r="C23">
-        <f>C22/(C21+C22)</f>
-        <v>9.5587490898993988E-2</v>
-      </c>
-      <c r="D23">
-        <f>D22/(D21+D22)</f>
-        <v>0.70903363818286858</v>
-      </c>
-      <c r="E23">
-        <f>E22/(E22+E21)</f>
-        <v>4.8482538244647398E-3</v>
-      </c>
-      <c r="F23">
-        <f>F22/(F22+F21)</f>
-        <v>3.1230096253554976E-5</v>
-      </c>
-      <c r="G23">
-        <f>G22/(G22+G21)</f>
-        <v>5.775130600655356E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E24"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E25"/>
-      <c r="G25" s="4"/>
+        <v>0.228609445415</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" customWidth="1"/>
+    <col min="11" max="12" width="13.33203125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="19.109375" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="16" max="16" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>0.10875155678200001</v>
+      </c>
+      <c r="C3">
+        <v>6.9972982145299997E-2</v>
+      </c>
+      <c r="D3">
+        <v>3.7156831936099997E-2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.7971619863299999E-2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>8.8905912176300006E-3</v>
+      </c>
+      <c r="H3">
+        <v>0.33245142236699998</v>
+      </c>
+      <c r="I3">
+        <v>0.20459074163400001</v>
+      </c>
+      <c r="J3">
+        <v>8.3004897197099997E-2</v>
+      </c>
+      <c r="K3" s="4">
+        <v>3.5087173105200001E-2</v>
+      </c>
+      <c r="N3">
+        <v>8.73348916946E-2</v>
+      </c>
+      <c r="O3">
+        <v>4.4161474431599998E-2</v>
+      </c>
+      <c r="P3">
+        <v>4.4161474431599998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>0.124553718599</v>
+      </c>
+      <c r="C4">
+        <v>0.100966929028</v>
+      </c>
+      <c r="D4">
+        <v>6.7872314098100003E-2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3.4990829788E-2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1.72877656595E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.35605094970200002</v>
+      </c>
+      <c r="I4">
+        <v>0.27248336313900001</v>
+      </c>
+      <c r="J4">
+        <v>0.14527171333700001</v>
+      </c>
+      <c r="K4" s="4">
+        <v>6.5615732183100003E-2</v>
+      </c>
+      <c r="N4">
+        <v>0.16892182402700001</v>
+      </c>
+      <c r="O4">
+        <v>8.6511335901099995E-2</v>
+      </c>
+      <c r="P4">
+        <v>3.7459072961100001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.12170787574</v>
+      </c>
+      <c r="C5">
+        <v>0.108614752698</v>
+      </c>
+      <c r="D5">
+        <v>8.7931939337100001E-2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>5.5135197145099998E-2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2.7352865939699999E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.34940296992600001</v>
+      </c>
+      <c r="I5">
+        <v>0.276750151055</v>
+      </c>
+      <c r="J5">
+        <v>0.174580710488</v>
+      </c>
+      <c r="K5" s="4">
+        <v>9.1382255226599998E-2</v>
+      </c>
+      <c r="N5">
+        <v>0.25475542024499997</v>
+      </c>
+      <c r="O5">
+        <v>0.13562165721200001</v>
+      </c>
+      <c r="P5">
+        <v>6.0800036401999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.13056513206299999</v>
+      </c>
+      <c r="C6">
+        <v>0.121726556848</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.115512308055</v>
+      </c>
+      <c r="E6" s="7">
+        <v>9.8450518472899998E-2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>6.3231082380100001E-2</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <v>0.37155274580499997</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.30844124258900002</v>
+      </c>
+      <c r="J6">
+        <v>0.23732099394799999</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.178973089679</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.103843622311</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.44315902808699997</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.25181224062800001</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.11531467597099999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>0.13049302057000001</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.121785137488</v>
+      </c>
+      <c r="D7">
+        <v>0.11542875544599999</v>
+      </c>
+      <c r="E7" s="6">
+        <v>9.8349957787099998E-2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>6.3162515980799999E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.37101705835499998</v>
+      </c>
+      <c r="I7">
+        <v>0.30483988960699998</v>
+      </c>
+      <c r="J7">
+        <v>0.228609445415</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.16198044166799999</v>
+      </c>
+      <c r="N7">
+        <v>0.378588410115</v>
+      </c>
+      <c r="O7">
+        <v>0.21487624836899999</v>
+      </c>
+      <c r="P7">
+        <v>9.7690424600599998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0.12477448969</v>
+      </c>
+      <c r="C8">
+        <v>0.11523145335399999</v>
+      </c>
+      <c r="D8">
+        <v>0.107051658223</v>
+      </c>
+      <c r="E8" s="6">
+        <v>8.5586398763499993E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>4.68647167558E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.32961737020300003</v>
+      </c>
+      <c r="I8">
+        <v>0.26576924171900002</v>
+      </c>
+      <c r="J8">
+        <v>0.18997027705700001</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.11585845671</v>
+      </c>
+      <c r="N8">
+        <v>0.32096738495600002</v>
+      </c>
+      <c r="O8">
+        <v>0.16261801655300001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0.12524968221400001</v>
+      </c>
+      <c r="C9">
+        <v>0.11589748293</v>
+      </c>
+      <c r="D9">
+        <v>0.108564097441</v>
+      </c>
+      <c r="E9" s="6">
+        <v>8.9073154816400005E-2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>5.1960084992999998E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.33945287990900003</v>
+      </c>
+      <c r="I9">
+        <v>0.27508411323999998</v>
+      </c>
+      <c r="J9">
+        <v>0.20749949454</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.13826497001999999</v>
+      </c>
+      <c r="N9">
+        <v>0.23160281583600001</v>
+      </c>
+      <c r="O9">
+        <v>0.103681843633</v>
+      </c>
+      <c r="P9">
+        <v>4.5527350778199999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10">
+        <v>0.12888775656599999</v>
+      </c>
+      <c r="C10">
+        <v>0.119917637264</v>
+      </c>
+      <c r="D10">
+        <v>0.112055620583</v>
+      </c>
+      <c r="E10" s="6">
+        <v>8.9941399626599999E-2</v>
+      </c>
+      <c r="F10" s="6">
+        <v>5.4465781395099999E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.37075270392600002</v>
+      </c>
+      <c r="I10">
+        <v>0.30514303180000002</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.23858836563399999</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.169189417205</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.101033820584</v>
+      </c>
+      <c r="N10">
+        <v>0.20316266391000001</v>
+      </c>
+      <c r="O10">
+        <v>9.6205430209499995E-2</v>
+      </c>
+      <c r="P10">
+        <v>4.1329476311099997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>0.130425934346</v>
+      </c>
+      <c r="C11">
+        <v>0.121813025982</v>
+      </c>
+      <c r="D11">
+        <v>0.115503746569</v>
+      </c>
+      <c r="E11" s="6">
+        <v>9.84456746992E-2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>6.3212308635300002E-2</v>
+      </c>
+      <c r="H11">
+        <v>0.37189982059499999</v>
+      </c>
+      <c r="I11">
+        <v>0.30861124613099999</v>
+      </c>
+      <c r="J11">
+        <v>0.24175011742700001</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.187231703246</v>
+      </c>
+      <c r="N11">
+        <v>0.56667730121100002</v>
+      </c>
+      <c r="O11">
+        <v>0.31236479660900002</v>
+      </c>
+      <c r="P11">
+        <v>0.13884424917900001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12">
+        <f>B10/B6</f>
+        <v>0.98715295982551721</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:O12" si="0">C10/C6</f>
+        <v>0.98513948286355613</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.97007515882762785</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.91356958827350143</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.86137670501495944</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.99784676095646496</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0.98930684249189438</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>1.0053403268919296</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>0.94533439361443861</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>0.97294199042301355</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0.45844189339208402</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>0.38205223848360664</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ref="P12" si="1">P10/P6</f>
+        <v>0.35840603950093719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13">
+        <f>B6/B10</f>
+        <v>1.0130142345688287</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:N13" si="2">C6/C10</f>
+        <v>1.0150846833315907</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>1.0308479615213912</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="2"/>
+        <v>1.0946073652581167</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1609322543527958</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>1.0021578854868167</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>1.010808737035692</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0.99468804070713079</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0578267402041199</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" ref="L13" si="3">L6/L10</f>
+        <v>1.0278105065289886</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4">
+        <f t="shared" si="2"/>
+        <v>2.1813015224259762</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" ref="O13:P13" si="4">O6/O10</f>
+        <v>2.6174431118871948</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" si="4"/>
+        <v>2.7901315541235046</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14">
+        <f>B6/B11</f>
+        <v>1.0010672548960295</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:N14" si="5">C6/C11</f>
+        <v>0.99929014870698007</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="5"/>
+        <v>1.0000741230155239</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="5"/>
+        <v>1.0000492025039678</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>1.0002969950822127</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>0.99906675192947192</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="5"/>
+        <v>0.99944913367827237</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>0.98167891901712334</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>0.95589094462197366</v>
+      </c>
+      <c r="L14"/>
+      <c r="N14">
+        <f t="shared" si="5"/>
+        <v>0.78203066743623018</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ref="O14:P14" si="6">O6/O11</f>
+        <v>0.80614795060662303</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="6"/>
+        <v>0.83053260507991689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15">
+        <f>B10/B11</f>
+        <v>0.98820650365502105</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:O15" si="7">C10/C11</f>
+        <v>0.98444018032784042</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="7"/>
+        <v>0.97014706372368498</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="7"/>
+        <v>0.91361453818479332</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="7"/>
+        <v>0.86163252966028148</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="7"/>
+        <v>0.99691552239211967</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="7"/>
+        <v>0.9887618666705108</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="7"/>
+        <v>0.98692140534759099</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="7"/>
+        <v>0.90363658649574641</v>
+      </c>
+      <c r="L15"/>
+      <c r="N15">
+        <f t="shared" si="7"/>
+        <v>0.35851561987014052</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="7"/>
+        <v>0.30799062907823227</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ref="P15" si="8">P10/P11</f>
+        <v>0.29766790166308899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16">
+        <f>B10/B10</f>
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:O16" si="9">C10/C10</f>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L16"/>
+      <c r="N16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ref="P16" si="10">P10/P10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21">
+        <v>244981461</v>
+      </c>
+      <c r="C21">
+        <v>242783978</v>
+      </c>
+      <c r="D21">
+        <v>685889769</v>
+      </c>
+      <c r="E21">
+        <v>670010827</v>
+      </c>
+      <c r="F21">
+        <v>1984911461</v>
+      </c>
+      <c r="G21">
+        <v>1793230332</v>
+      </c>
+      <c r="H21">
+        <v>4509584773</v>
+      </c>
+      <c r="I21">
+        <v>3727475620</v>
+      </c>
+      <c r="J21">
+        <v>561793875</v>
+      </c>
+      <c r="K21">
+        <v>2081193314</v>
+      </c>
+      <c r="L21" s="6">
+        <v>1636680451</v>
+      </c>
+      <c r="M21">
+        <v>1626544891</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22">
+        <v>85636</v>
+      </c>
+      <c r="C22">
+        <v>1588316</v>
+      </c>
+      <c r="D22">
+        <v>171273</v>
+      </c>
+      <c r="E22">
+        <v>23907482</v>
+      </c>
+      <c r="F22">
+        <v>3455574</v>
+      </c>
+      <c r="G22">
+        <v>185601975</v>
+      </c>
+      <c r="H22">
+        <v>20325942</v>
+      </c>
+      <c r="I22">
+        <v>788416193</v>
+      </c>
+      <c r="J22">
+        <v>1537176500</v>
+      </c>
+      <c r="K22">
+        <v>17787156</v>
+      </c>
+      <c r="L22" s="6">
+        <v>90240</v>
+      </c>
+      <c r="M22">
+        <v>9395661</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23">
+        <v>33022575</v>
+      </c>
+      <c r="C23">
+        <v>32949998</v>
+      </c>
+      <c r="D23">
+        <v>79253860</v>
+      </c>
+      <c r="E23">
+        <v>76777139</v>
+      </c>
+      <c r="F23">
+        <v>171260445</v>
+      </c>
+      <c r="G23">
+        <v>150460278</v>
+      </c>
+      <c r="H23">
+        <v>360914864</v>
+      </c>
+      <c r="I23">
+        <v>276639507</v>
+      </c>
+      <c r="J23">
+        <v>505857046</v>
+      </c>
+      <c r="K23">
+        <v>1570355832</v>
+      </c>
+      <c r="L23" s="6">
+        <v>1252749702</v>
+      </c>
+      <c r="M23">
+        <v>1244755843</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>161951</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>2391037</v>
+      </c>
+      <c r="F24">
+        <v>2931</v>
+      </c>
+      <c r="G24">
+        <v>19826971</v>
+      </c>
+      <c r="H24">
+        <v>19962</v>
+      </c>
+      <c r="I24">
+        <v>83788248</v>
+      </c>
+      <c r="J24">
+        <v>1064500244</v>
+      </c>
+      <c r="K24">
+        <v>2731</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
+        <v>7282796</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:C25" si="11">B23+B21</f>
+        <v>278004036</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="11"/>
+        <v>275733976</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:E25" si="12">D23+D21</f>
+        <v>765143629</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="12"/>
+        <v>746787966</v>
+      </c>
+      <c r="F25">
+        <f>F23+F21</f>
+        <v>2156171906</v>
+      </c>
+      <c r="G25">
+        <f>G23+G21</f>
+        <v>1943690610</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:I25" si="13">H23+H21</f>
+        <v>4870499637</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="13"/>
+        <v>4004115127</v>
+      </c>
+      <c r="J25">
+        <f>J21+J23</f>
+        <v>1067650921</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ref="K25:K26" si="14">K23+K21</f>
+        <v>3651549146</v>
+      </c>
+      <c r="L25">
+        <f>L23+L21</f>
+        <v>2889430153</v>
+      </c>
+      <c r="M25">
+        <f>M23+M21</f>
+        <v>2871300734</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:C26" si="15">B22+B24</f>
+        <v>85636</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="15"/>
+        <v>1750267</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:E26" si="16">D22+D24</f>
+        <v>171273</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="16"/>
+        <v>26298519</v>
+      </c>
+      <c r="F26">
+        <f>F22+F24</f>
+        <v>3458505</v>
+      </c>
+      <c r="G26">
+        <f>G22+G24</f>
+        <v>205428946</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26:I26" si="17">H22+H24</f>
+        <v>20345904</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="17"/>
+        <v>872204441</v>
+      </c>
+      <c r="J26">
+        <f>J24+J22</f>
+        <v>2601676744</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="14"/>
+        <v>17789887</v>
+      </c>
+      <c r="L26">
+        <f>L24+L22</f>
+        <v>90240</v>
+      </c>
+      <c r="M26">
+        <f>M24+M22</f>
+        <v>16678457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27" si="18">B26/(B25+B26)</f>
+        <v>3.0794383474982127E-4</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27" si="19">C26/(C25+C26)</f>
+        <v>6.3076266280100088E-3</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:E27" si="20">D26/(D25+D26)</f>
+        <v>2.2379415264541655E-4</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="20"/>
+        <v>3.4017564024547656E-2</v>
+      </c>
+      <c r="F27">
+        <f>F26/(F25+F26)</f>
+        <v>1.601433737172911E-3</v>
+      </c>
+      <c r="G27">
+        <f>G26/(G25+G26)</f>
+        <v>9.5587490898993988E-2</v>
+      </c>
+      <c r="H27">
+        <f>H26/(H25+H26)</f>
+        <v>4.159997249849768E-3</v>
+      </c>
+      <c r="I27">
+        <f>I26/(I25+I26)</f>
+        <v>0.17886531611334297</v>
+      </c>
+      <c r="J27">
+        <f>J26/(J25+J26)</f>
+        <v>0.70903363818286858</v>
+      </c>
+      <c r="K27">
+        <f>K26/(K26+K25)</f>
+        <v>4.8482538244647398E-3</v>
+      </c>
+      <c r="L27">
+        <f>L26/(L26+L25)</f>
+        <v>3.1230096253554976E-5</v>
+      </c>
+      <c r="M27">
+        <f>M26/(M26+M25)</f>
+        <v>5.775130600655356E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f t="shared" ref="B28" si="21">C27/B27</f>
+        <v>20.483042413024538</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28" si="22">E27/D27</f>
+        <v>152.00381074498264</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28">
+        <f>G27/F27</f>
+        <v>59.688695623297683</v>
+      </c>
+      <c r="H28">
+        <f>I27/H27</f>
+        <v>42.996498644272521</v>
+      </c>
+      <c r="J28">
+        <f>K27/J27</f>
+        <v>6.837833303494573E-3</v>
+      </c>
+      <c r="K28"/>
+      <c r="L28">
+        <f>M27/L27</f>
+        <v>184.92195969450344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E29"/>
+      <c r="G29" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2">
+        <v>4765479</v>
+      </c>
+      <c r="F2">
+        <v>150989852</v>
+      </c>
+      <c r="G2">
+        <f>F2*$C$3/($E$3*4*1024)</f>
+        <v>0.68214920536474577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3">
+        <v>3458505</v>
+      </c>
+      <c r="F3">
+        <v>204469552</v>
+      </c>
+      <c r="G3">
+        <f>F3*$C$3/($E$3*4*1024)</f>
+        <v>0.92376236263934852</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4">
+        <v>20345904</v>
+      </c>
+      <c r="F4">
+        <v>1240471200</v>
+      </c>
+      <c r="G4">
+        <f>F4*C4/(E4*4*1024)</f>
+        <v>0.95264199123322313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5">
+        <v>18738666</v>
+      </c>
+      <c r="F5">
+        <v>511661812</v>
+      </c>
+      <c r="G5">
+        <f>F5*C5/(E5*4*1024)</f>
+        <v>0.42664274033701227</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>